--- a/biology/Zoologie/Epeolus/Epeolus.xlsx
+++ b/biology/Zoologie/Epeolus/Epeolus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Epeolus est un genre d'abeilles de la famille des Apidae
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ITIS      (11 mai 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS      (11 mai 2019) :
 Epeolus ainsliei Crawford, 1932
 Epeolus alatus Friese, 1922
 Epeolus alpinus Friese, 1893
@@ -615,7 +629,7 @@
 Epeolus weemsi Mitchell, 1962
 Epeolus zonatus Smith, 1854
 Epeolus mercatus Fabricius, 1804
-Selon NCBI  (11 mai 2019)[3] :
+Selon NCBI  (11 mai 2019) :
 Epeolus ainsliei Crawford, 1932
 Epeolus alpinus Friese, 1893
 Epeolus americanus (Cresson, 1878)
